--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wepapp\brand-matching2\newmatch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A9E16-3443-43BC-9BB3-989EF212DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="21300" yWindow="2970" windowWidth="23700" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>키워드</t>
   </si>
@@ -124,9 +143,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>*XL*</t>
   </si>
   <si>
@@ -134,17 +150,45 @@
   </si>
   <si>
     <t>*M~L*</t>
+  </si>
+  <si>
+    <t>(XXL~JL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25겨울)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13~19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XXL~3XL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S~XXL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7~11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(17~19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +196,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,17 +250,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -281,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,214 +551,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>39</v>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wepapp\brand-matching2\newmatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 기린관련\기린 주문장\미결제주문\작업후 하은\미결제양식260101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A9E16-3443-43BC-9BB3-989EF212DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEAA882-5027-448C-98D9-864853CD4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="2970" windowWidth="23700" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22530" yWindow="570" windowWidth="16470" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>키워드</t>
   </si>
@@ -178,6 +178,54 @@
   <si>
     <t>(17~19)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(맘(55~77))</t>
+  </si>
+  <si>
+    <t>(12M~XL)</t>
+  </si>
+  <si>
+    <t>(2XL)</t>
+  </si>
+  <si>
+    <t>(XXL)</t>
+  </si>
+  <si>
+    <t>(XS(돌전후)~XL(6~7세))</t>
+  </si>
+  <si>
+    <t>(12M(6~12개월)~XL)</t>
+  </si>
+  <si>
+    <t>(6X)</t>
+  </si>
+  <si>
+    <t>(S~L)</t>
+  </si>
+  <si>
+    <t>(13~17)</t>
+  </si>
+  <si>
+    <t>(XS(2~3세)~XL(6~7세))</t>
+  </si>
+  <si>
+    <t>(XS(2-3세)~XL(6-7세))</t>
+  </si>
+  <si>
+    <t>(15~17)</t>
+  </si>
+  <si>
+    <t>(140~150)</t>
+  </si>
+  <si>
+    <t>(2XL~5XL)</t>
+  </si>
+  <si>
+    <t>(adult)</t>
+  </si>
+  <si>
+    <t>(kids)</t>
   </si>
 </sst>
 </file>
@@ -552,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,6 +838,86 @@
         <v>45</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 기린관련\기린 주문장\미결제주문\작업후 하은\미결제양식260101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilgi\Desktop\이하은-주문장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEAA882-5027-448C-98D9-864853CD4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB84C4-1761-4BED-9D74-505BC29A7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22530" yWindow="570" windowWidth="16470" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>키워드</t>
   </si>
@@ -226,6 +227,78 @@
   </si>
   <si>
     <t>(kids)</t>
+  </si>
+  <si>
+    <t>(110~130)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(M~XL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S(3~4세)~XL(6~7세))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(130~160)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5~15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100~120)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4~5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7~13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3~11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(L~JS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S(3~4)~XL(7~8))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1호(3-5세)~3호(8-10세))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(L~2XL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(160~170)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(17~21)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JXL~맘)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(15~19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XS(1~2y)~XL(6~7y))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,12 +329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -291,11 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -314,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,9 +434,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +469,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,9 +521,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,6 +1032,111 @@
         <v>61</v>
       </c>
     </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilgi\Desktop\이하은-주문장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB84C4-1761-4BED-9D74-505BC29A7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670DCA39-7068-4FD8-81EE-BE1F2A473DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>키워드</t>
   </si>
@@ -298,6 +298,107 @@
   </si>
   <si>
     <t>(XS(1~2y)~XL(6~7y))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3XL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12M~18M)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1~11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S(XS~M)~L(L~XL))</t>
+  </si>
+  <si>
+    <t>(L~XL)</t>
+  </si>
+  <si>
+    <t>(9~13)</t>
+  </si>
+  <si>
+    <t>(1X~2X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(90~140)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3~13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JM~JL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주니어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2~3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아동복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XXS~L)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JM~JXL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2XL~3XL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2XL~J3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XL~2XL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JXL~JXXL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3XL~5X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(21~FREE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S(3-5세)~XL(12-14세))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1(S~M)~2(L~XL))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2XL~JL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1호(1-2세)~6호(11-12세))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,11 +471,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -714,9 +816,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -1137,6 +1239,156 @@
         <v>79</v>
       </c>
     </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
